--- a/GATEWAY/A1#111CIDSOFTWARE/CiD_Software_SpA/ADT/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111CIDSOFTWARE/CiD_Software_SpA/ADT/3.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CiD\SIO\CidCda2Generator\doc\LDO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1877EFF0-5B03-4514-ADDA-35629D35248C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227FA9D7-C215-4589-AF27-1234CDF5C511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="357">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -807,6 +807,9 @@
     <t>VALIDAZIONE_TOKEN_JWT_CAMPO_LDO_KO</t>
   </si>
   <si>
+    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RAD_KO</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -853,7 +856,7 @@
     </r>
   </si>
   <si>
-    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RAD_KO</t>
+    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_CERT_VAC_KO</t>
   </si>
   <si>
     <r>
@@ -902,7 +905,7 @@
     </r>
   </si>
   <si>
-    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_CERT_VAC_KO</t>
+    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_SING_VAC_KO</t>
   </si>
   <si>
     <r>
@@ -951,7 +954,7 @@
     </r>
   </si>
   <si>
-    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_SING_VAC_KO</t>
+    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_VPS_KO</t>
   </si>
   <si>
     <r>
@@ -1000,55 +1003,6 @@
     </r>
   </si>
   <si>
-    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_VPS_KO</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Precondizioni:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Il fornitore utilizza un token jwt con dei campi valorizzati in maniera errata.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Descrizione di Business del caso di test: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt avente dei campi valorizzati in maniera errata al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
- </t>
-    </r>
-  </si>
-  <si>
     <t>VALIDAZIONE_LAB_TIMEOUT</t>
   </si>
   <si>
@@ -1855,21 +1809,12 @@
     <t>2023-02-08T11:15:35Z</t>
   </si>
   <si>
-    <t>2023-02-08T11:15:36Z</t>
-  </si>
-  <si>
-    <t>2023-02-08T11:15:37Z</t>
-  </si>
-  <si>
     <t>2023-02-08T11:15:38Z</t>
   </si>
   <si>
     <t>2023-02-08T11:15:39Z</t>
   </si>
   <si>
-    <t>2023-02-08T11:15:41Z</t>
-  </si>
-  <si>
     <t>2023-02-08T11:15:43Z</t>
   </si>
   <si>
@@ -1882,27 +1827,12 @@
     <t>e502aaf096489250</t>
   </si>
   <si>
-    <t>c3b02d990559c240</t>
-  </si>
-  <si>
-    <t>fafb885b44c2ba83</t>
-  </si>
-  <si>
-    <t>b9ecac2bfa3748dc</t>
-  </si>
-  <si>
     <t>e7b21fadba5d314e</t>
   </si>
   <si>
     <t>a3f6ef30d305feeb</t>
   </si>
   <si>
-    <t>3b02299fc2c36dfe</t>
-  </si>
-  <si>
-    <t>cf16773f36d3673d</t>
-  </si>
-  <si>
     <t>2a738dbcbda840ca</t>
   </si>
   <si>
@@ -1915,51 +1845,21 @@
     <t>2.16.840.1.113883.2.9.2.99.4.4.30fabd6f40e52d72ebd06c35b2132fdcf0cffc95b62f9fa6b0a3453fbefc3e70.f7328dd647^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.99.4.4.31e699c6847bc540fcbc08bf60015a5c429eb683ba763c00520f54279c32942f.df4eccb8db^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.99.4.4.31e699c6847bc540fcbc08bf60015a5c429eb683ba763c00520f54279c32942f.d87647c6fb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.99.4.4.31e699c6847bc540fcbc08bf60015a5c429eb683ba763c00520f54279c32942f.50fb2ec0be^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.99.4.4.bd7a3c3f023c8d4b46267434009f88dd725514d1b5f5386354f94b52e60bfdf7.2b54b0b814^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.99.4.4.31e699c6847bc540fcbc08bf60015a5c429eb683ba763c00520f54279c32942f.d7adbd4689^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.99.4.4.31e699c6847bc540fcbc08bf60015a5c429eb683ba763c00520f54279c32942f.7740e27544^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.99.4.4.31e699c6847bc540fcbc08bf60015a5c429eb683ba763c00520f54279c32942f.072f0afb70^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.99.4.4.31e699c6847bc540fcbc08bf60015a5c429eb683ba763c00520f54279c32942f.28d3e92128^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Ci sono controlli nel software che impediscono di avere questo campo vuoto.</t>
   </si>
   <si>
     <t>Ci sono controlli nel software che vanno ad eseguire l'uppercase del CF</t>
   </si>
   <si>
-    <t>E' un campo obbligatorio e sempre valorizzato.</t>
-  </si>
-  <si>
-    <t>Gli assistiti hanno sempre il campo nome valorizzato.</t>
-  </si>
-  <si>
-    <t>Gli assistiti hanno sempre il campo sesso valorizzato.</t>
-  </si>
-  <si>
-    <t>La diagnosi di dimissione è un campo obbligatorio in fase di dimissione.</t>
-  </si>
-  <si>
     <t>Nel caso ci fosse un refuso in archivio l'operatore riceve l'errore di validazione e non è autonomo per la risoluzione</t>
   </si>
   <si>
@@ -1976,6 +1876,27 @@
   </si>
   <si>
     <t>Viene mostrato all'operatore un errore di timeout e viene chiesto di riprovare.</t>
+  </si>
+  <si>
+    <t>Viene richiesto all'operatore di compilare i dati richiesti</t>
+  </si>
+  <si>
+    <t>Viene richiesto all'operatore di compilare i dati richiesti per l'anagrafica dell'assitito</t>
+  </si>
+  <si>
+    <t>Al campo non è possibile assegnare un valore differente da quelli previsti</t>
+  </si>
+  <si>
+    <t>In fase di dimissione viene chiesto all'operatore di inserire la diagnosi di dimissione prima della validazione.</t>
+  </si>
+  <si>
+    <t>In configurazione abbiamo impostato a stringa vuota il claim "iss"</t>
+  </si>
+  <si>
+    <t>In configurazione abbiamo leggermente alterato il valore del claim "iss"</t>
+  </si>
+  <si>
+    <t>Viene mostrato all'operatore l'errore 'Controllare la configurazione dell'applicativo,  sezione FsE' e viene chiesto di correggerla e riprovare. L'operatore non è autonomo.</t>
   </si>
 </sst>
 </file>
@@ -3895,10 +3816,10 @@
   <dimension ref="A1:O992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="J15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J64" sqref="J64"/>
+      <selection pane="bottomRight" activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3913,7 +3834,8 @@
     <col min="10" max="10" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27.33203125" customWidth="1"/>
     <col min="12" max="12" width="33.33203125" customWidth="1"/>
-    <col min="13" max="14" width="36.44140625" customWidth="1"/>
+    <col min="13" max="13" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.44140625" customWidth="1"/>
     <col min="15" max="15" width="31.6640625" customWidth="1"/>
     <col min="16" max="26" width="8.6640625" customWidth="1"/>
   </cols>
@@ -4035,7 +3957,7 @@
       <c r="N7" s="9"/>
       <c r="O7" s="6"/>
     </row>
-    <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -4249,13 +4171,13 @@
         <v>44965</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="J15" s="19"/>
       <c r="K15" s="19" t="s">
@@ -4286,13 +4208,13 @@
         <v>44965</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="J16" s="19"/>
       <c r="K16" s="19" t="s">
@@ -4323,13 +4245,13 @@
         <v>44965</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="J17" s="19"/>
       <c r="K17" s="19" t="s">
@@ -4362,15 +4284,15 @@
       <c r="I18" s="18"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L18" s="19"/>
       <c r="M18" s="19" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="N18" s="20"/>
       <c r="O18" s="21" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="154.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -4854,14 +4776,20 @@
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
+      <c r="J36" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="K36" s="19" t="s">
+        <v>87</v>
+      </c>
       <c r="L36" s="19"/>
       <c r="M36" s="19"/>
       <c r="N36" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="O36" s="21"/>
+      <c r="O36" s="21" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="37" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
@@ -5008,7 +4936,7 @@
       </c>
       <c r="O41" s="21"/>
     </row>
-    <row r="42" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="14">
         <v>37</v>
       </c>
@@ -5022,20 +4950,26 @@
         <v>100</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F42" s="17"/>
       <c r="G42" s="18"/>
       <c r="H42" s="18"/>
       <c r="I42" s="18"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
+      <c r="J42" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="K42" s="19" t="s">
+        <v>87</v>
+      </c>
       <c r="L42" s="19"/>
       <c r="M42" s="19"/>
       <c r="N42" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="O42" s="21"/>
+      <c r="O42" s="21" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="43" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14">
@@ -5048,10 +4982,10 @@
         <v>49</v>
       </c>
       <c r="D43" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" s="16" t="s">
         <v>102</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>103</v>
       </c>
       <c r="F43" s="17"/>
       <c r="G43" s="18"/>
@@ -5077,10 +5011,10 @@
         <v>58</v>
       </c>
       <c r="D44" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>104</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>105</v>
       </c>
       <c r="F44" s="17"/>
       <c r="G44" s="18"/>
@@ -5106,10 +5040,10 @@
         <v>67</v>
       </c>
       <c r="D45" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>107</v>
       </c>
       <c r="F45" s="17"/>
       <c r="G45" s="18"/>
@@ -5135,10 +5069,10 @@
         <v>76</v>
       </c>
       <c r="D46" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" s="16" t="s">
         <v>108</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>109</v>
       </c>
       <c r="F46" s="17"/>
       <c r="G46" s="18"/>
@@ -5164,10 +5098,10 @@
         <v>29</v>
       </c>
       <c r="D47" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E47" s="16" t="s">
         <v>110</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>111</v>
       </c>
       <c r="F47" s="17"/>
       <c r="G47" s="18"/>
@@ -5193,19 +5127,21 @@
         <v>40</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F48" s="17"/>
       <c r="G48" s="18"/>
       <c r="H48" s="18"/>
       <c r="I48" s="18"/>
       <c r="J48" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="K48" s="19"/>
+        <v>349</v>
+      </c>
+      <c r="K48" s="19" t="s">
+        <v>87</v>
+      </c>
       <c r="L48" s="19"/>
       <c r="M48" s="19"/>
       <c r="N48" s="20" t="s">
@@ -5224,10 +5160,10 @@
         <v>49</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F49" s="17"/>
       <c r="G49" s="18"/>
@@ -5253,10 +5189,10 @@
         <v>58</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F50" s="17"/>
       <c r="G50" s="18"/>
@@ -5282,10 +5218,10 @@
         <v>67</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F51" s="17"/>
       <c r="G51" s="18"/>
@@ -5311,10 +5247,10 @@
         <v>76</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F52" s="17"/>
       <c r="G52" s="18"/>
@@ -5340,10 +5276,10 @@
         <v>29</v>
       </c>
       <c r="D53" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E53" s="16" t="s">
         <v>117</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>118</v>
       </c>
       <c r="F53" s="17"/>
       <c r="G53" s="18"/>
@@ -5369,10 +5305,10 @@
         <v>29</v>
       </c>
       <c r="D54" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E54" s="16" t="s">
         <v>119</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>120</v>
       </c>
       <c r="F54" s="17"/>
       <c r="G54" s="18"/>
@@ -5398,10 +5334,10 @@
         <v>29</v>
       </c>
       <c r="D55" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E55" s="16" t="s">
         <v>121</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>122</v>
       </c>
       <c r="F55" s="17"/>
       <c r="G55" s="18"/>
@@ -5427,10 +5363,10 @@
         <v>29</v>
       </c>
       <c r="D56" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E56" s="16" t="s">
         <v>123</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>124</v>
       </c>
       <c r="F56" s="17"/>
       <c r="G56" s="18"/>
@@ -5456,10 +5392,10 @@
         <v>29</v>
       </c>
       <c r="D57" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E57" s="16" t="s">
         <v>125</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>126</v>
       </c>
       <c r="F57" s="17"/>
       <c r="G57" s="18"/>
@@ -5485,10 +5421,10 @@
         <v>29</v>
       </c>
       <c r="D58" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E58" s="16" t="s">
         <v>127</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>128</v>
       </c>
       <c r="F58" s="17"/>
       <c r="G58" s="18"/>
@@ -5514,10 +5450,10 @@
         <v>29</v>
       </c>
       <c r="D59" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E59" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>130</v>
       </c>
       <c r="F59" s="17"/>
       <c r="G59" s="18"/>
@@ -5543,10 +5479,10 @@
         <v>29</v>
       </c>
       <c r="D60" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E60" s="16" t="s">
         <v>131</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>132</v>
       </c>
       <c r="F60" s="17"/>
       <c r="G60" s="18"/>
@@ -5572,10 +5508,10 @@
         <v>29</v>
       </c>
       <c r="D61" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E61" s="16" t="s">
         <v>133</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>134</v>
       </c>
       <c r="F61" s="17"/>
       <c r="G61" s="18"/>
@@ -5601,10 +5537,10 @@
         <v>29</v>
       </c>
       <c r="D62" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E62" s="16" t="s">
         <v>135</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>136</v>
       </c>
       <c r="F62" s="17"/>
       <c r="G62" s="18"/>
@@ -5630,10 +5566,10 @@
         <v>29</v>
       </c>
       <c r="D63" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E63" s="16" t="s">
         <v>137</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>138</v>
       </c>
       <c r="F63" s="17"/>
       <c r="G63" s="18"/>
@@ -5659,32 +5595,22 @@
         <v>40</v>
       </c>
       <c r="D64" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E64" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="E64" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="F64" s="17">
-        <v>44965</v>
-      </c>
-      <c r="G64" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="H64" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="I64" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="J64" s="19" t="s">
-        <v>356</v>
-      </c>
+      <c r="F64" s="17"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="19"/>
       <c r="K64" s="19" t="s">
-        <v>87</v>
+        <v>323</v>
       </c>
       <c r="L64" s="19"/>
       <c r="M64" s="19" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="N64" s="20" t="s">
         <v>87</v>
@@ -5702,30 +5628,22 @@
         <v>40</v>
       </c>
       <c r="D65" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E65" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="E65" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="F65" s="17">
-        <v>44965</v>
-      </c>
-      <c r="G65" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="H65" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="I65" s="18" t="s">
-        <v>349</v>
-      </c>
+      <c r="F65" s="17"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
       <c r="J65" s="19"/>
       <c r="K65" s="19" t="s">
-        <v>87</v>
+        <v>323</v>
       </c>
       <c r="L65" s="19"/>
       <c r="M65" s="19" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="N65" s="20" t="s">
         <v>87</v>
@@ -5743,29 +5661,23 @@
         <v>40</v>
       </c>
       <c r="D66" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E66" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="E66" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="F66" s="17">
-        <v>44965</v>
-      </c>
-      <c r="G66" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H66" s="18" t="s">
-        <v>339</v>
-      </c>
-      <c r="I66" s="18" t="s">
-        <v>350</v>
-      </c>
+      <c r="F66" s="17"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
       <c r="J66" s="19"/>
       <c r="K66" s="19" t="s">
-        <v>87</v>
+        <v>323</v>
       </c>
       <c r="L66" s="19"/>
-      <c r="M66" s="19"/>
+      <c r="M66" s="19" t="s">
+        <v>352</v>
+      </c>
       <c r="N66" s="20" t="s">
         <v>87</v>
       </c>
@@ -5782,31 +5694,31 @@
         <v>40</v>
       </c>
       <c r="D67" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E67" s="16" t="s">
         <v>145</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>146</v>
       </c>
       <c r="F67" s="17">
         <v>44965</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="I67" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="J67" s="19"/>
+        <v>339</v>
+      </c>
+      <c r="J67" s="19" t="s">
+        <v>350</v>
+      </c>
       <c r="K67" s="19" t="s">
         <v>87</v>
       </c>
       <c r="L67" s="19"/>
-      <c r="M67" s="19" t="s">
-        <v>359</v>
-      </c>
+      <c r="M67" s="19"/>
       <c r="N67" s="20" t="s">
         <v>87</v>
       </c>
@@ -5823,31 +5735,31 @@
         <v>40</v>
       </c>
       <c r="D68" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E68" s="16" t="s">
         <v>147</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>148</v>
       </c>
       <c r="F68" s="17">
         <v>44965</v>
       </c>
       <c r="G68" s="18" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H68" s="18" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="I68" s="18" t="s">
-        <v>352</v>
-      </c>
-      <c r="J68" s="19"/>
+        <v>340</v>
+      </c>
+      <c r="J68" s="19" t="s">
+        <v>351</v>
+      </c>
       <c r="K68" s="19" t="s">
         <v>87</v>
       </c>
       <c r="L68" s="19"/>
-      <c r="M68" s="19" t="s">
-        <v>360</v>
-      </c>
+      <c r="M68" s="19"/>
       <c r="N68" s="20" t="s">
         <v>87</v>
       </c>
@@ -5864,30 +5776,22 @@
         <v>40</v>
       </c>
       <c r="D69" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E69" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="E69" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="F69" s="17">
-        <v>44965</v>
-      </c>
-      <c r="G69" s="18" t="s">
-        <v>332</v>
-      </c>
-      <c r="H69" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="I69" s="18" t="s">
-        <v>353</v>
-      </c>
+      <c r="F69" s="17"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
       <c r="J69" s="19"/>
       <c r="K69" s="19" t="s">
-        <v>87</v>
+        <v>323</v>
       </c>
       <c r="L69" s="19"/>
       <c r="M69" s="19" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="N69" s="20" t="s">
         <v>87</v>
@@ -5905,30 +5809,22 @@
         <v>40</v>
       </c>
       <c r="D70" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="E70" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="E70" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="F70" s="17">
-        <v>44965</v>
-      </c>
-      <c r="G70" s="18" t="s">
-        <v>332</v>
-      </c>
-      <c r="H70" s="18" t="s">
-        <v>343</v>
-      </c>
-      <c r="I70" s="18" t="s">
-        <v>354</v>
-      </c>
+      <c r="F70" s="17"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
       <c r="J70" s="19"/>
       <c r="K70" s="19" t="s">
-        <v>87</v>
+        <v>323</v>
       </c>
       <c r="L70" s="19"/>
       <c r="M70" s="19" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="N70" s="20" t="s">
         <v>87</v>
@@ -5946,10 +5842,10 @@
         <v>40</v>
       </c>
       <c r="D71" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E71" s="16" t="s">
         <v>153</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>154</v>
       </c>
       <c r="F71" s="17"/>
       <c r="G71" s="18"/>
@@ -5957,11 +5853,11 @@
       <c r="I71" s="18"/>
       <c r="J71" s="19"/>
       <c r="K71" s="19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L71" s="19"/>
       <c r="M71" s="19" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="N71" s="20" t="s">
         <v>87</v>
@@ -5979,10 +5875,10 @@
         <v>40</v>
       </c>
       <c r="D72" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E72" s="16" t="s">
         <v>155</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>156</v>
       </c>
       <c r="F72" s="17"/>
       <c r="G72" s="18"/>
@@ -5990,11 +5886,11 @@
       <c r="I72" s="18"/>
       <c r="J72" s="19"/>
       <c r="K72" s="19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L72" s="19"/>
       <c r="M72" s="19" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="N72" s="20" t="s">
         <v>87</v>
@@ -6012,10 +5908,10 @@
         <v>40</v>
       </c>
       <c r="D73" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E73" s="16" t="s">
         <v>157</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>158</v>
       </c>
       <c r="F73" s="17"/>
       <c r="G73" s="18"/>
@@ -6023,11 +5919,11 @@
       <c r="I73" s="18"/>
       <c r="J73" s="19"/>
       <c r="K73" s="19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L73" s="19"/>
       <c r="M73" s="19" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="N73" s="20" t="s">
         <v>87</v>
@@ -6045,37 +5941,37 @@
         <v>40</v>
       </c>
       <c r="D74" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="E74" s="16" t="s">
         <v>159</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>160</v>
       </c>
       <c r="F74" s="17">
         <v>44965</v>
       </c>
       <c r="G74" s="18" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H74" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="I74" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="J74" s="19" t="s">
         <v>344</v>
-      </c>
-      <c r="I74" s="18" t="s">
-        <v>355</v>
-      </c>
-      <c r="J74" s="19" t="s">
-        <v>363</v>
       </c>
       <c r="K74" s="19" t="s">
         <v>87</v>
       </c>
       <c r="L74" s="19"/>
-      <c r="M74" s="19" t="s">
-        <v>364</v>
-      </c>
+      <c r="M74" s="19"/>
       <c r="N74" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="O74" s="21"/>
+      <c r="O74" s="21" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="75" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="14">
@@ -6088,10 +5984,10 @@
         <v>40</v>
       </c>
       <c r="D75" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E75" s="16" t="s">
         <v>161</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>162</v>
       </c>
       <c r="F75" s="17"/>
       <c r="G75" s="18"/>
@@ -6099,11 +5995,11 @@
       <c r="I75" s="18"/>
       <c r="J75" s="19"/>
       <c r="K75" s="19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L75" s="19"/>
       <c r="M75" s="19" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="N75" s="20" t="s">
         <v>87</v>
@@ -6121,10 +6017,10 @@
         <v>49</v>
       </c>
       <c r="D76" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E76" s="16" t="s">
         <v>163</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>164</v>
       </c>
       <c r="F76" s="17"/>
       <c r="G76" s="18"/>
@@ -6150,10 +6046,10 @@
         <v>49</v>
       </c>
       <c r="D77" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="E77" s="16" t="s">
         <v>165</v>
-      </c>
-      <c r="E77" s="16" t="s">
-        <v>166</v>
       </c>
       <c r="F77" s="17"/>
       <c r="G77" s="18"/>
@@ -6179,10 +6075,10 @@
         <v>49</v>
       </c>
       <c r="D78" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E78" s="16" t="s">
         <v>167</v>
-      </c>
-      <c r="E78" s="16" t="s">
-        <v>168</v>
       </c>
       <c r="F78" s="17"/>
       <c r="G78" s="18"/>
@@ -6208,10 +6104,10 @@
         <v>49</v>
       </c>
       <c r="D79" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E79" s="16" t="s">
         <v>169</v>
-      </c>
-      <c r="E79" s="16" t="s">
-        <v>170</v>
       </c>
       <c r="F79" s="17"/>
       <c r="G79" s="18"/>
@@ -6237,10 +6133,10 @@
         <v>49</v>
       </c>
       <c r="D80" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="E80" s="16" t="s">
         <v>171</v>
-      </c>
-      <c r="E80" s="16" t="s">
-        <v>172</v>
       </c>
       <c r="F80" s="17"/>
       <c r="G80" s="18"/>
@@ -6266,10 +6162,10 @@
         <v>49</v>
       </c>
       <c r="D81" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="E81" s="16" t="s">
         <v>173</v>
-      </c>
-      <c r="E81" s="16" t="s">
-        <v>174</v>
       </c>
       <c r="F81" s="17"/>
       <c r="G81" s="18"/>
@@ -6295,10 +6191,10 @@
         <v>49</v>
       </c>
       <c r="D82" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E82" s="16" t="s">
         <v>175</v>
-      </c>
-      <c r="E82" s="16" t="s">
-        <v>176</v>
       </c>
       <c r="F82" s="17"/>
       <c r="G82" s="18"/>
@@ -6324,10 +6220,10 @@
         <v>49</v>
       </c>
       <c r="D83" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="E83" s="16" t="s">
         <v>177</v>
-      </c>
-      <c r="E83" s="16" t="s">
-        <v>178</v>
       </c>
       <c r="F83" s="17"/>
       <c r="G83" s="18"/>
@@ -6353,10 +6249,10 @@
         <v>49</v>
       </c>
       <c r="D84" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E84" s="16" t="s">
         <v>179</v>
-      </c>
-      <c r="E84" s="16" t="s">
-        <v>180</v>
       </c>
       <c r="F84" s="17"/>
       <c r="G84" s="18"/>
@@ -6382,10 +6278,10 @@
         <v>49</v>
       </c>
       <c r="D85" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="E85" s="16" t="s">
         <v>181</v>
-      </c>
-      <c r="E85" s="16" t="s">
-        <v>182</v>
       </c>
       <c r="F85" s="17"/>
       <c r="G85" s="18"/>
@@ -6411,10 +6307,10 @@
         <v>49</v>
       </c>
       <c r="D86" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="E86" s="16" t="s">
         <v>183</v>
-      </c>
-      <c r="E86" s="16" t="s">
-        <v>184</v>
       </c>
       <c r="F86" s="17"/>
       <c r="G86" s="18"/>
@@ -6440,10 +6336,10 @@
         <v>49</v>
       </c>
       <c r="D87" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="E87" s="16" t="s">
         <v>185</v>
-      </c>
-      <c r="E87" s="16" t="s">
-        <v>186</v>
       </c>
       <c r="F87" s="17"/>
       <c r="G87" s="18"/>
@@ -6469,10 +6365,10 @@
         <v>49</v>
       </c>
       <c r="D88" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="E88" s="16" t="s">
         <v>187</v>
-      </c>
-      <c r="E88" s="16" t="s">
-        <v>188</v>
       </c>
       <c r="F88" s="17"/>
       <c r="G88" s="18"/>
@@ -6498,10 +6394,10 @@
         <v>49</v>
       </c>
       <c r="D89" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E89" s="16" t="s">
         <v>189</v>
-      </c>
-      <c r="E89" s="16" t="s">
-        <v>190</v>
       </c>
       <c r="F89" s="17"/>
       <c r="G89" s="18"/>
@@ -6527,10 +6423,10 @@
         <v>49</v>
       </c>
       <c r="D90" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E90" s="16" t="s">
         <v>191</v>
-      </c>
-      <c r="E90" s="16" t="s">
-        <v>192</v>
       </c>
       <c r="F90" s="17"/>
       <c r="G90" s="18"/>
@@ -6556,10 +6452,10 @@
         <v>49</v>
       </c>
       <c r="D91" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="E91" s="16" t="s">
         <v>193</v>
-      </c>
-      <c r="E91" s="16" t="s">
-        <v>194</v>
       </c>
       <c r="F91" s="17"/>
       <c r="G91" s="18"/>
@@ -6585,10 +6481,10 @@
         <v>49</v>
       </c>
       <c r="D92" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="E92" s="16" t="s">
         <v>195</v>
-      </c>
-      <c r="E92" s="16" t="s">
-        <v>196</v>
       </c>
       <c r="F92" s="17"/>
       <c r="G92" s="18"/>
@@ -6614,10 +6510,10 @@
         <v>49</v>
       </c>
       <c r="D93" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E93" s="16" t="s">
         <v>197</v>
-      </c>
-      <c r="E93" s="16" t="s">
-        <v>198</v>
       </c>
       <c r="F93" s="17"/>
       <c r="G93" s="18"/>
@@ -6643,10 +6539,10 @@
         <v>49</v>
       </c>
       <c r="D94" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="E94" s="16" t="s">
         <v>199</v>
-      </c>
-      <c r="E94" s="16" t="s">
-        <v>200</v>
       </c>
       <c r="F94" s="17"/>
       <c r="G94" s="18"/>
@@ -6672,10 +6568,10 @@
         <v>58</v>
       </c>
       <c r="D95" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E95" s="16" t="s">
         <v>201</v>
-      </c>
-      <c r="E95" s="16" t="s">
-        <v>202</v>
       </c>
       <c r="F95" s="17"/>
       <c r="G95" s="18"/>
@@ -6701,10 +6597,10 @@
         <v>58</v>
       </c>
       <c r="D96" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E96" s="16" t="s">
         <v>203</v>
-      </c>
-      <c r="E96" s="16" t="s">
-        <v>204</v>
       </c>
       <c r="F96" s="17"/>
       <c r="G96" s="18"/>
@@ -6730,10 +6626,10 @@
         <v>58</v>
       </c>
       <c r="D97" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="E97" s="16" t="s">
         <v>205</v>
-      </c>
-      <c r="E97" s="16" t="s">
-        <v>206</v>
       </c>
       <c r="F97" s="17"/>
       <c r="G97" s="18"/>
@@ -6759,10 +6655,10 @@
         <v>58</v>
       </c>
       <c r="D98" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="E98" s="16" t="s">
         <v>207</v>
-      </c>
-      <c r="E98" s="16" t="s">
-        <v>208</v>
       </c>
       <c r="F98" s="17"/>
       <c r="G98" s="18"/>
@@ -6788,10 +6684,10 @@
         <v>58</v>
       </c>
       <c r="D99" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="E99" s="16" t="s">
         <v>209</v>
-      </c>
-      <c r="E99" s="16" t="s">
-        <v>210</v>
       </c>
       <c r="F99" s="17"/>
       <c r="G99" s="18"/>
@@ -6817,10 +6713,10 @@
         <v>58</v>
       </c>
       <c r="D100" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="E100" s="16" t="s">
         <v>211</v>
-      </c>
-      <c r="E100" s="16" t="s">
-        <v>212</v>
       </c>
       <c r="F100" s="17"/>
       <c r="G100" s="18"/>
@@ -6846,10 +6742,10 @@
         <v>58</v>
       </c>
       <c r="D101" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="E101" s="16" t="s">
         <v>213</v>
-      </c>
-      <c r="E101" s="16" t="s">
-        <v>214</v>
       </c>
       <c r="F101" s="17"/>
       <c r="G101" s="18"/>
@@ -6875,10 +6771,10 @@
         <v>58</v>
       </c>
       <c r="D102" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="E102" s="16" t="s">
         <v>215</v>
-      </c>
-      <c r="E102" s="16" t="s">
-        <v>216</v>
       </c>
       <c r="F102" s="17"/>
       <c r="G102" s="18"/>
@@ -6904,10 +6800,10 @@
         <v>58</v>
       </c>
       <c r="D103" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="E103" s="16" t="s">
         <v>217</v>
-      </c>
-      <c r="E103" s="16" t="s">
-        <v>218</v>
       </c>
       <c r="F103" s="17"/>
       <c r="G103" s="18"/>
@@ -6933,10 +6829,10 @@
         <v>58</v>
       </c>
       <c r="D104" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="E104" s="16" t="s">
         <v>219</v>
-      </c>
-      <c r="E104" s="16" t="s">
-        <v>220</v>
       </c>
       <c r="F104" s="17"/>
       <c r="G104" s="18"/>
@@ -6962,10 +6858,10 @@
         <v>58</v>
       </c>
       <c r="D105" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="E105" s="16" t="s">
         <v>221</v>
-      </c>
-      <c r="E105" s="16" t="s">
-        <v>222</v>
       </c>
       <c r="F105" s="17"/>
       <c r="G105" s="18"/>
@@ -6991,10 +6887,10 @@
         <v>58</v>
       </c>
       <c r="D106" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="E106" s="16" t="s">
         <v>223</v>
-      </c>
-      <c r="E106" s="16" t="s">
-        <v>224</v>
       </c>
       <c r="F106" s="17"/>
       <c r="G106" s="18"/>
@@ -7020,10 +6916,10 @@
         <v>58</v>
       </c>
       <c r="D107" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E107" s="16" t="s">
         <v>225</v>
-      </c>
-      <c r="E107" s="16" t="s">
-        <v>226</v>
       </c>
       <c r="F107" s="17"/>
       <c r="G107" s="18"/>
@@ -7049,10 +6945,10 @@
         <v>67</v>
       </c>
       <c r="D108" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="E108" s="16" t="s">
         <v>227</v>
-      </c>
-      <c r="E108" s="16" t="s">
-        <v>228</v>
       </c>
       <c r="F108" s="17"/>
       <c r="G108" s="18"/>
@@ -7078,10 +6974,10 @@
         <v>67</v>
       </c>
       <c r="D109" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="E109" s="16" t="s">
         <v>229</v>
-      </c>
-      <c r="E109" s="16" t="s">
-        <v>230</v>
       </c>
       <c r="F109" s="17"/>
       <c r="G109" s="18"/>
@@ -7107,10 +7003,10 @@
         <v>67</v>
       </c>
       <c r="D110" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="E110" s="16" t="s">
         <v>231</v>
-      </c>
-      <c r="E110" s="16" t="s">
-        <v>232</v>
       </c>
       <c r="F110" s="17"/>
       <c r="G110" s="18"/>
@@ -7136,10 +7032,10 @@
         <v>67</v>
       </c>
       <c r="D111" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="E111" s="16" t="s">
         <v>233</v>
-      </c>
-      <c r="E111" s="16" t="s">
-        <v>234</v>
       </c>
       <c r="F111" s="17"/>
       <c r="G111" s="18"/>
@@ -7165,10 +7061,10 @@
         <v>67</v>
       </c>
       <c r="D112" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="E112" s="16" t="s">
         <v>235</v>
-      </c>
-      <c r="E112" s="16" t="s">
-        <v>236</v>
       </c>
       <c r="F112" s="17"/>
       <c r="G112" s="18"/>
@@ -7194,10 +7090,10 @@
         <v>67</v>
       </c>
       <c r="D113" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="E113" s="16" t="s">
         <v>237</v>
-      </c>
-      <c r="E113" s="16" t="s">
-        <v>238</v>
       </c>
       <c r="F113" s="17"/>
       <c r="G113" s="18"/>
@@ -7223,10 +7119,10 @@
         <v>67</v>
       </c>
       <c r="D114" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="E114" s="16" t="s">
         <v>239</v>
-      </c>
-      <c r="E114" s="16" t="s">
-        <v>240</v>
       </c>
       <c r="F114" s="17"/>
       <c r="G114" s="18"/>
@@ -7252,10 +7148,10 @@
         <v>67</v>
       </c>
       <c r="D115" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="E115" s="16" t="s">
         <v>241</v>
-      </c>
-      <c r="E115" s="16" t="s">
-        <v>242</v>
       </c>
       <c r="F115" s="17"/>
       <c r="G115" s="18"/>
@@ -7281,10 +7177,10 @@
         <v>67</v>
       </c>
       <c r="D116" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E116" s="16" t="s">
         <v>243</v>
-      </c>
-      <c r="E116" s="16" t="s">
-        <v>244</v>
       </c>
       <c r="F116" s="17"/>
       <c r="G116" s="18"/>
@@ -7310,10 +7206,10 @@
         <v>67</v>
       </c>
       <c r="D117" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="E117" s="16" t="s">
         <v>245</v>
-      </c>
-      <c r="E117" s="16" t="s">
-        <v>246</v>
       </c>
       <c r="F117" s="17"/>
       <c r="G117" s="18"/>
@@ -7339,10 +7235,10 @@
         <v>67</v>
       </c>
       <c r="D118" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="E118" s="16" t="s">
         <v>247</v>
-      </c>
-      <c r="E118" s="16" t="s">
-        <v>248</v>
       </c>
       <c r="F118" s="17"/>
       <c r="G118" s="18"/>
@@ -7368,10 +7264,10 @@
         <v>67</v>
       </c>
       <c r="D119" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="E119" s="16" t="s">
         <v>249</v>
-      </c>
-      <c r="E119" s="16" t="s">
-        <v>250</v>
       </c>
       <c r="F119" s="17"/>
       <c r="G119" s="18"/>
@@ -7397,10 +7293,10 @@
         <v>67</v>
       </c>
       <c r="D120" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="E120" s="16" t="s">
         <v>251</v>
-      </c>
-      <c r="E120" s="16" t="s">
-        <v>252</v>
       </c>
       <c r="F120" s="17"/>
       <c r="G120" s="18"/>
@@ -7426,10 +7322,10 @@
         <v>67</v>
       </c>
       <c r="D121" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="E121" s="16" t="s">
         <v>253</v>
-      </c>
-      <c r="E121" s="16" t="s">
-        <v>254</v>
       </c>
       <c r="F121" s="17"/>
       <c r="G121" s="18"/>
@@ -7455,10 +7351,10 @@
         <v>67</v>
       </c>
       <c r="D122" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="E122" s="16" t="s">
         <v>255</v>
-      </c>
-      <c r="E122" s="16" t="s">
-        <v>256</v>
       </c>
       <c r="F122" s="17"/>
       <c r="G122" s="18"/>
@@ -7484,10 +7380,10 @@
         <v>76</v>
       </c>
       <c r="D123" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E123" s="16" t="s">
         <v>257</v>
-      </c>
-      <c r="E123" s="16" t="s">
-        <v>258</v>
       </c>
       <c r="F123" s="17"/>
       <c r="G123" s="18"/>
@@ -7513,10 +7409,10 @@
         <v>76</v>
       </c>
       <c r="D124" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="E124" s="16" t="s">
         <v>259</v>
-      </c>
-      <c r="E124" s="16" t="s">
-        <v>260</v>
       </c>
       <c r="F124" s="17"/>
       <c r="G124" s="18"/>
@@ -7542,10 +7438,10 @@
         <v>76</v>
       </c>
       <c r="D125" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="E125" s="16" t="s">
         <v>261</v>
-      </c>
-      <c r="E125" s="16" t="s">
-        <v>262</v>
       </c>
       <c r="F125" s="17"/>
       <c r="G125" s="18"/>
@@ -7571,10 +7467,10 @@
         <v>76</v>
       </c>
       <c r="D126" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="E126" s="16" t="s">
         <v>263</v>
-      </c>
-      <c r="E126" s="16" t="s">
-        <v>264</v>
       </c>
       <c r="F126" s="17"/>
       <c r="G126" s="18"/>
@@ -7600,10 +7496,10 @@
         <v>76</v>
       </c>
       <c r="D127" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="E127" s="16" t="s">
         <v>265</v>
-      </c>
-      <c r="E127" s="16" t="s">
-        <v>266</v>
       </c>
       <c r="F127" s="17"/>
       <c r="G127" s="18"/>
@@ -7629,10 +7525,10 @@
         <v>76</v>
       </c>
       <c r="D128" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E128" s="16" t="s">
         <v>267</v>
-      </c>
-      <c r="E128" s="16" t="s">
-        <v>268</v>
       </c>
       <c r="F128" s="17"/>
       <c r="G128" s="18"/>
@@ -7658,10 +7554,10 @@
         <v>76</v>
       </c>
       <c r="D129" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="E129" s="16" t="s">
         <v>269</v>
-      </c>
-      <c r="E129" s="16" t="s">
-        <v>270</v>
       </c>
       <c r="F129" s="17"/>
       <c r="G129" s="18"/>
@@ -7687,10 +7583,10 @@
         <v>76</v>
       </c>
       <c r="D130" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="E130" s="16" t="s">
         <v>271</v>
-      </c>
-      <c r="E130" s="16" t="s">
-        <v>272</v>
       </c>
       <c r="F130" s="17"/>
       <c r="G130" s="18"/>
@@ -7716,10 +7612,10 @@
         <v>76</v>
       </c>
       <c r="D131" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="E131" s="16" t="s">
         <v>273</v>
-      </c>
-      <c r="E131" s="16" t="s">
-        <v>274</v>
       </c>
       <c r="F131" s="17"/>
       <c r="G131" s="18"/>
@@ -7745,10 +7641,10 @@
         <v>76</v>
       </c>
       <c r="D132" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="E132" s="16" t="s">
         <v>275</v>
-      </c>
-      <c r="E132" s="16" t="s">
-        <v>276</v>
       </c>
       <c r="F132" s="17"/>
       <c r="G132" s="18"/>
@@ -7774,10 +7670,10 @@
         <v>76</v>
       </c>
       <c r="D133" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="E133" s="16" t="s">
         <v>277</v>
-      </c>
-      <c r="E133" s="16" t="s">
-        <v>278</v>
       </c>
       <c r="F133" s="17"/>
       <c r="G133" s="18"/>
@@ -7803,10 +7699,10 @@
         <v>76</v>
       </c>
       <c r="D134" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="E134" s="16" t="s">
         <v>279</v>
-      </c>
-      <c r="E134" s="16" t="s">
-        <v>280</v>
       </c>
       <c r="F134" s="17"/>
       <c r="G134" s="18"/>
@@ -7832,10 +7728,10 @@
         <v>76</v>
       </c>
       <c r="D135" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E135" s="16" t="s">
         <v>281</v>
-      </c>
-      <c r="E135" s="16" t="s">
-        <v>282</v>
       </c>
       <c r="F135" s="17"/>
       <c r="G135" s="18"/>
@@ -7861,10 +7757,10 @@
         <v>76</v>
       </c>
       <c r="D136" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="E136" s="16" t="s">
         <v>283</v>
-      </c>
-      <c r="E136" s="16" t="s">
-        <v>284</v>
       </c>
       <c r="F136" s="17"/>
       <c r="G136" s="18"/>
@@ -7890,10 +7786,10 @@
         <v>76</v>
       </c>
       <c r="D137" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="E137" s="16" t="s">
         <v>285</v>
-      </c>
-      <c r="E137" s="16" t="s">
-        <v>286</v>
       </c>
       <c r="F137" s="17"/>
       <c r="G137" s="18"/>
@@ -7919,10 +7815,10 @@
         <v>76</v>
       </c>
       <c r="D138" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="E138" s="16" t="s">
         <v>287</v>
-      </c>
-      <c r="E138" s="16" t="s">
-        <v>288</v>
       </c>
       <c r="F138" s="17"/>
       <c r="G138" s="18"/>
@@ -7948,10 +7844,10 @@
         <v>76</v>
       </c>
       <c r="D139" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="E139" s="16" t="s">
         <v>289</v>
-      </c>
-      <c r="E139" s="16" t="s">
-        <v>290</v>
       </c>
       <c r="F139" s="17"/>
       <c r="G139" s="18"/>
@@ -7977,10 +7873,10 @@
         <v>76</v>
       </c>
       <c r="D140" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="E140" s="16" t="s">
         <v>291</v>
-      </c>
-      <c r="E140" s="16" t="s">
-        <v>292</v>
       </c>
       <c r="F140" s="17"/>
       <c r="G140" s="18"/>
@@ -8006,10 +7902,10 @@
         <v>76</v>
       </c>
       <c r="D141" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="E141" s="16" t="s">
         <v>293</v>
-      </c>
-      <c r="E141" s="16" t="s">
-        <v>294</v>
       </c>
       <c r="F141" s="17"/>
       <c r="G141" s="18"/>
@@ -8035,10 +7931,10 @@
         <v>76</v>
       </c>
       <c r="D142" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E142" s="16" t="s">
         <v>295</v>
-      </c>
-      <c r="E142" s="16" t="s">
-        <v>296</v>
       </c>
       <c r="F142" s="17"/>
       <c r="G142" s="18"/>
@@ -8064,10 +7960,10 @@
         <v>76</v>
       </c>
       <c r="D143" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="E143" s="16" t="s">
         <v>297</v>
-      </c>
-      <c r="E143" s="16" t="s">
-        <v>298</v>
       </c>
       <c r="F143" s="17"/>
       <c r="G143" s="18"/>
@@ -8093,10 +7989,10 @@
         <v>76</v>
       </c>
       <c r="D144" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E144" s="16" t="s">
         <v>299</v>
-      </c>
-      <c r="E144" s="16" t="s">
-        <v>300</v>
       </c>
       <c r="F144" s="17"/>
       <c r="G144" s="18"/>
@@ -8122,10 +8018,10 @@
         <v>76</v>
       </c>
       <c r="D145" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="E145" s="16" t="s">
         <v>301</v>
-      </c>
-      <c r="E145" s="16" t="s">
-        <v>302</v>
       </c>
       <c r="F145" s="17"/>
       <c r="G145" s="18"/>
@@ -8151,10 +8047,10 @@
         <v>76</v>
       </c>
       <c r="D146" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="E146" s="16" t="s">
         <v>303</v>
-      </c>
-      <c r="E146" s="16" t="s">
-        <v>304</v>
       </c>
       <c r="F146" s="17"/>
       <c r="G146" s="18"/>
@@ -8180,10 +8076,10 @@
         <v>76</v>
       </c>
       <c r="D147" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="E147" s="16" t="s">
         <v>305</v>
-      </c>
-      <c r="E147" s="16" t="s">
-        <v>306</v>
       </c>
       <c r="F147" s="17"/>
       <c r="G147" s="18"/>
@@ -18405,10 +18301,10 @@
         <v>14</v>
       </c>
       <c r="C1" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>307</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18416,13 +18312,13 @@
         <v>29</v>
       </c>
       <c r="B2" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>309</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="D2" s="28" t="s">
         <v>310</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18430,13 +18326,13 @@
         <v>40</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C3" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="D3" s="28" t="s">
         <v>312</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18444,13 +18340,13 @@
         <v>49</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C4" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>314</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18458,13 +18354,13 @@
         <v>58</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C5" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="D5" s="28" t="s">
         <v>316</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18472,13 +18368,13 @@
         <v>67</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C6" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>318</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18486,13 +18382,13 @@
         <v>76</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C7" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>320</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -19515,7 +19411,7 @@
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>87</v>
@@ -19523,10 +19419,10 @@
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B3" s="36" t="s">
         <v>323</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/GATEWAY/A1#111CIDSOFTWARE/CiD_Software_SpA/ADT/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111CIDSOFTWARE/CiD_Software_SpA/ADT/3.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CiD\SIO\CidCda2Generator\doc\LDO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227FA9D7-C215-4589-AF27-1234CDF5C511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8375A2-1148-4187-ADD0-E3FEC21A320C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3816,10 +3816,10 @@
   <dimension ref="A1:O992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="J15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J36" sqref="J36"/>
+      <selection pane="bottomRight" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4772,7 +4772,9 @@
       <c r="E36" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="F36" s="17"/>
+      <c r="F36" s="17">
+        <v>44970</v>
+      </c>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
@@ -4952,7 +4954,9 @@
       <c r="E42" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="F42" s="17"/>
+      <c r="F42" s="17">
+        <v>44970</v>
+      </c>
       <c r="G42" s="18"/>
       <c r="H42" s="18"/>
       <c r="I42" s="18"/>

--- a/GATEWAY/A1#111CIDSOFTWARE/CiD_Software_SpA/ADT/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111CIDSOFTWARE/CiD_Software_SpA/ADT/3.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CiD\SIO\CidCda2Generator\doc\LDO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8375A2-1148-4187-ADD0-E3FEC21A320C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D694263-EFD5-456E-917C-BB34069E79D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="362">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -1890,13 +1890,28 @@
     <t>In fase di dimissione viene chiesto all'operatore di inserire la diagnosi di dimissione prima della validazione.</t>
   </si>
   <si>
-    <t>In configurazione abbiamo impostato a stringa vuota il claim "iss"</t>
-  </si>
-  <si>
-    <t>In configurazione abbiamo leggermente alterato il valore del claim "iss"</t>
-  </si>
-  <si>
     <t>Viene mostrato all'operatore l'errore 'Controllare la configurazione dell'applicativo,  sezione FsE' e viene chiesto di correggerla e riprovare. L'operatore non è autonomo.</t>
+  </si>
+  <si>
+    <t>2023-02-21T13:09:32Z</t>
+  </si>
+  <si>
+    <t>4cf6d2cde68817a1</t>
+  </si>
+  <si>
+    <t>In configurazione abbiamo impostato a stringa vuota il claim "purpose_of_use"</t>
+  </si>
+  <si>
+    <t>In configurazione abbiamo leggermente alterato il valore del claim "purpose_of_use"</t>
+  </si>
+  <si>
+    <t>695bffb3730c2e97</t>
+  </si>
+  <si>
+    <t>2023-02-21T13:17:19Z</t>
+  </si>
+  <si>
+    <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
 </sst>
 </file>
@@ -3816,10 +3831,10 @@
   <dimension ref="A1:O992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="G15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F42" sqref="F42"/>
+      <selection pane="bottomRight" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4773,13 +4788,19 @@
         <v>89</v>
       </c>
       <c r="F36" s="17">
-        <v>44970</v>
-      </c>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
+        <v>44978</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>361</v>
+      </c>
       <c r="J36" s="19" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K36" s="19" t="s">
         <v>87</v>
@@ -4790,7 +4811,7 @@
         <v>87</v>
       </c>
       <c r="O36" s="21" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -4955,13 +4976,19 @@
         <v>99</v>
       </c>
       <c r="F42" s="17">
-        <v>44970</v>
-      </c>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
+        <v>44978</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="H42" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="I42" s="18" t="s">
+        <v>361</v>
+      </c>
       <c r="J42" s="19" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K42" s="19" t="s">
         <v>87</v>
@@ -4972,7 +4999,7 @@
         <v>87</v>
       </c>
       <c r="O42" s="21" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18256,8 +18283,8 @@
     <mergeCell ref="C5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">

--- a/GATEWAY/A1#111CIDSOFTWARE/CiD_Software_SpA/ADT/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111CIDSOFTWARE/CiD_Software_SpA/ADT/3.0/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CiD\SIO\CidCda2Generator\doc\LDO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D694263-EFD5-456E-917C-BB34069E79D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99304AA-EA02-4A52-97B3-71A41963CD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prerequisiti" sheetId="1" r:id="rId1"/>
@@ -1902,9 +1902,6 @@
     <t>In configurazione abbiamo impostato a stringa vuota il claim "purpose_of_use"</t>
   </si>
   <si>
-    <t>In configurazione abbiamo leggermente alterato il valore del claim "purpose_of_use"</t>
-  </si>
-  <si>
     <t>695bffb3730c2e97</t>
   </si>
   <si>
@@ -1912,6 +1909,9 @@
   </si>
   <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
+  </si>
+  <si>
+    <t>In configurazione abbiamo leggermente alterato il valore del claim "action_id"</t>
   </si>
 </sst>
 </file>
@@ -3831,10 +3831,10 @@
   <dimension ref="A1:O992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="G15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="J15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H42" sqref="H42"/>
+      <selection pane="bottomRight" activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4797,7 +4797,7 @@
         <v>356</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J36" s="19" t="s">
         <v>354</v>
@@ -4979,13 +4979,13 @@
         <v>44978</v>
       </c>
       <c r="G42" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="H42" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="I42" s="18" t="s">
         <v>360</v>
-      </c>
-      <c r="H42" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="I42" s="18" t="s">
-        <v>361</v>
       </c>
       <c r="J42" s="19" t="s">
         <v>354</v>
@@ -4999,7 +4999,7 @@
         <v>87</v>
       </c>
       <c r="O42" s="21" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">

--- a/GATEWAY/A1#111CIDSOFTWARE/CiD_Software_SpA/ADT/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111CIDSOFTWARE/CiD_Software_SpA/ADT/3.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CiD\SIO\CidCda2Generator\doc\LDO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99304AA-EA02-4A52-97B3-71A41963CD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EC45F4-6032-4EDC-8CDE-0B88AFEE0B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="364">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -1869,12 +1869,6 @@
     <t>Informazioni non disponibili nel software</t>
   </si>
   <si>
-    <t>Informazioni opzionali non disponibili nel software</t>
-  </si>
-  <si>
-    <t>Nel software non sono disponibili tutte le informazioni tali da popolare tutti i valori opzionali</t>
-  </si>
-  <si>
     <t>Viene mostrato all'operatore un errore di timeout e viene chiesto di riprovare.</t>
   </si>
   <si>
@@ -1912,6 +1906,18 @@
   </si>
   <si>
     <t>In configurazione abbiamo leggermente alterato il valore del claim "action_id"</t>
+  </si>
+  <si>
+    <t>2023-03-02T08:24:04Z</t>
+  </si>
+  <si>
+    <t>acc43f0170706de0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.99.4.4.3b216396278c322a8332e0b8128cdbabe1764c2400727edbdbbe9331e0f90a67.a5ba8a689e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>abbiamo riempito tutti i campi opzionali a nostra disposizione.</t>
   </si>
 </sst>
 </file>
@@ -3834,7 +3840,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="J15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="O42" sqref="O42"/>
+      <selection pane="bottomRight" activeCell="Q48" sqref="Q48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4293,21 +4299,27 @@
       <c r="E18" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
+      <c r="F18" s="17">
+        <v>44987</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>362</v>
+      </c>
       <c r="J18" s="19"/>
       <c r="K18" s="19" t="s">
-        <v>323</v>
+        <v>87</v>
       </c>
       <c r="L18" s="19"/>
-      <c r="M18" s="19" t="s">
-        <v>347</v>
-      </c>
+      <c r="M18" s="19"/>
       <c r="N18" s="20"/>
       <c r="O18" s="21" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="154.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -4791,16 +4803,16 @@
         <v>44978</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J36" s="19" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K36" s="19" t="s">
         <v>87</v>
@@ -4811,7 +4823,7 @@
         <v>87</v>
       </c>
       <c r="O36" s="21" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -4979,16 +4991,16 @@
         <v>44978</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H42" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="I42" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="I42" s="18" t="s">
-        <v>360</v>
-      </c>
       <c r="J42" s="19" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K42" s="19" t="s">
         <v>87</v>
@@ -4999,7 +5011,7 @@
         <v>87</v>
       </c>
       <c r="O42" s="21" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5168,7 +5180,7 @@
       <c r="H48" s="18"/>
       <c r="I48" s="18"/>
       <c r="J48" s="19" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K48" s="19" t="s">
         <v>87</v>
@@ -5707,7 +5719,7 @@
       </c>
       <c r="L66" s="19"/>
       <c r="M66" s="19" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N66" s="20" t="s">
         <v>87</v>
@@ -5743,7 +5755,7 @@
         <v>339</v>
       </c>
       <c r="J67" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K67" s="19" t="s">
         <v>87</v>
@@ -5784,7 +5796,7 @@
         <v>340</v>
       </c>
       <c r="J68" s="19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="K68" s="19" t="s">
         <v>87</v>
@@ -5822,7 +5834,7 @@
       </c>
       <c r="L69" s="19"/>
       <c r="M69" s="19" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N69" s="20" t="s">
         <v>87</v>
@@ -5855,7 +5867,7 @@
       </c>
       <c r="L70" s="19"/>
       <c r="M70" s="19" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="N70" s="20" t="s">
         <v>87</v>

--- a/GATEWAY/A1#111CIDSOFTWARE/CiD_Software_SpA/ADT/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111CIDSOFTWARE/CiD_Software_SpA/ADT/3.0/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CiD\SIO\CidCda2Generator\doc\LDO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EC45F4-6032-4EDC-8CDE-0B88AFEE0B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E51FBE8-EE97-42F4-A594-C6682D90C4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prerequisiti" sheetId="1" r:id="rId1"/>
@@ -1800,15 +1800,6 @@
     <t>NO</t>
   </si>
   <si>
-    <t>2023-02-08T11:15:32Z</t>
-  </si>
-  <si>
-    <t>2023-02-08T11:15:33Z</t>
-  </si>
-  <si>
-    <t>2023-02-08T11:15:35Z</t>
-  </si>
-  <si>
     <t>2023-02-08T11:15:38Z</t>
   </si>
   <si>
@@ -1818,15 +1809,6 @@
     <t>2023-02-08T11:15:43Z</t>
   </si>
   <si>
-    <t>164b350619a1b8b0</t>
-  </si>
-  <si>
-    <t>5f1fe35198e9572d</t>
-  </si>
-  <si>
-    <t>e502aaf096489250</t>
-  </si>
-  <si>
     <t>e7b21fadba5d314e</t>
   </si>
   <si>
@@ -1836,15 +1818,6 @@
     <t>2a738dbcbda840ca</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.99.4.4.31e699c6847bc540fcbc08bf60015a5c429eb683ba763c00520f54279c32942f.f8250a0b24^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.99.4.4.31e699c6847bc540fcbc08bf60015a5c429eb683ba763c00520f54279c32942f.419d415446^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.99.4.4.30fabd6f40e52d72ebd06c35b2132fdcf0cffc95b62f9fa6b0a3453fbefc3e70.f7328dd647^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.99.4.4.bd7a3c3f023c8d4b46267434009f88dd725514d1b5f5386354f94b52e60bfdf7.2b54b0b814^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
@@ -1908,16 +1881,43 @@
     <t>In configurazione abbiamo leggermente alterato il valore del claim "action_id"</t>
   </si>
   <si>
-    <t>2023-03-02T08:24:04Z</t>
-  </si>
-  <si>
-    <t>acc43f0170706de0</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.99.4.4.3b216396278c322a8332e0b8128cdbabe1764c2400727edbdbbe9331e0f90a67.a5ba8a689e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>abbiamo riempito tutti i campi opzionali a nostra disposizione.</t>
+  </si>
+  <si>
+    <t>2023-03-21T10:53:14Z</t>
+  </si>
+  <si>
+    <t>2023-03-21T10:53:16Z</t>
+  </si>
+  <si>
+    <t>2023-03-21T10:53:19Z</t>
+  </si>
+  <si>
+    <t>2023-03-21T10:53:21Z</t>
+  </si>
+  <si>
+    <t>0b605c9686000448</t>
+  </si>
+  <si>
+    <t>d31f4b9eccf55a26</t>
+  </si>
+  <si>
+    <t>4fc83fa316a232cd</t>
+  </si>
+  <si>
+    <t>913c5b465fe95eb3</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.99.4.4.fa69ecf06f26a38405490e216e1555b94fecab4e05654e74ab647b17c95ba0ce.2b18cff1ff^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.99.4.4.fa69ecf06f26a38405490e216e1555b94fecab4e05654e74ab647b17c95ba0ce.452807db7f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.99.4.4.fa69ecf06f26a38405490e216e1555b94fecab4e05654e74ab647b17c95ba0ce.5f4de3c17f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.99.4.4.3b216396278c322a8332e0b8128cdbabe1764c2400727edbdbbe9331e0f90a67.088ca5f3cb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3837,10 +3837,10 @@
   <dimension ref="A1:O992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="J15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="G15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="Q48" sqref="Q48"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4189,16 +4189,16 @@
         <v>42</v>
       </c>
       <c r="F15" s="17">
-        <v>44965</v>
+        <v>45006</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="J15" s="19"/>
       <c r="K15" s="19" t="s">
@@ -4226,16 +4226,16 @@
         <v>44</v>
       </c>
       <c r="F16" s="17">
-        <v>44965</v>
+        <v>45006</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="J16" s="19"/>
       <c r="K16" s="19" t="s">
@@ -4263,16 +4263,16 @@
         <v>46</v>
       </c>
       <c r="F17" s="17">
-        <v>44965</v>
+        <v>45006</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="J17" s="19"/>
       <c r="K17" s="19" t="s">
@@ -4300,16 +4300,16 @@
         <v>48</v>
       </c>
       <c r="F18" s="17">
-        <v>44987</v>
+        <v>45006</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="J18" s="19"/>
       <c r="K18" s="19" t="s">
@@ -4319,7 +4319,7 @@
       <c r="M18" s="19"/>
       <c r="N18" s="20"/>
       <c r="O18" s="21" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="154.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -4803,16 +4803,16 @@
         <v>44978</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="J36" s="19" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="K36" s="19" t="s">
         <v>87</v>
@@ -4823,7 +4823,7 @@
         <v>87</v>
       </c>
       <c r="O36" s="21" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -4991,16 +4991,16 @@
         <v>44978</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="J42" s="19" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="K42" s="19" t="s">
         <v>87</v>
@@ -5011,7 +5011,7 @@
         <v>87</v>
       </c>
       <c r="O42" s="21" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5180,7 +5180,7 @@
       <c r="H48" s="18"/>
       <c r="I48" s="18"/>
       <c r="J48" s="19" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="K48" s="19" t="s">
         <v>87</v>
@@ -5653,7 +5653,7 @@
       </c>
       <c r="L64" s="19"/>
       <c r="M64" s="19" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="N64" s="20" t="s">
         <v>87</v>
@@ -5686,7 +5686,7 @@
       </c>
       <c r="L65" s="19"/>
       <c r="M65" s="19" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="N65" s="20" t="s">
         <v>87</v>
@@ -5719,7 +5719,7 @@
       </c>
       <c r="L66" s="19"/>
       <c r="M66" s="19" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="N66" s="20" t="s">
         <v>87</v>
@@ -5746,16 +5746,16 @@
         <v>44965</v>
       </c>
       <c r="G67" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="H67" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="H67" s="18" t="s">
-        <v>333</v>
-      </c>
       <c r="I67" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="J67" s="19" t="s">
         <v>339</v>
-      </c>
-      <c r="J67" s="19" t="s">
-        <v>348</v>
       </c>
       <c r="K67" s="19" t="s">
         <v>87</v>
@@ -5787,16 +5787,16 @@
         <v>44965</v>
       </c>
       <c r="G68" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="H68" s="18" t="s">
         <v>328</v>
       </c>
-      <c r="H68" s="18" t="s">
-        <v>334</v>
-      </c>
       <c r="I68" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="J68" s="19" t="s">
         <v>340</v>
-      </c>
-      <c r="J68" s="19" t="s">
-        <v>349</v>
       </c>
       <c r="K68" s="19" t="s">
         <v>87</v>
@@ -5834,7 +5834,7 @@
       </c>
       <c r="L69" s="19"/>
       <c r="M69" s="19" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="N69" s="20" t="s">
         <v>87</v>
@@ -5867,7 +5867,7 @@
       </c>
       <c r="L70" s="19"/>
       <c r="M70" s="19" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="N70" s="20" t="s">
         <v>87</v>
@@ -5900,7 +5900,7 @@
       </c>
       <c r="L71" s="19"/>
       <c r="M71" s="19" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="N71" s="20" t="s">
         <v>87</v>
@@ -5933,7 +5933,7 @@
       </c>
       <c r="L72" s="19"/>
       <c r="M72" s="19" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="N72" s="20" t="s">
         <v>87</v>
@@ -5966,7 +5966,7 @@
       </c>
       <c r="L73" s="19"/>
       <c r="M73" s="19" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="N73" s="20" t="s">
         <v>87</v>
@@ -5993,16 +5993,16 @@
         <v>44965</v>
       </c>
       <c r="G74" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="H74" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="H74" s="18" t="s">
+      <c r="I74" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="J74" s="19" t="s">
         <v>335</v>
-      </c>
-      <c r="I74" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="J74" s="19" t="s">
-        <v>344</v>
       </c>
       <c r="K74" s="19" t="s">
         <v>87</v>
@@ -6013,7 +6013,7 @@
         <v>87</v>
       </c>
       <c r="O74" s="21" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6042,7 +6042,7 @@
       </c>
       <c r="L75" s="19"/>
       <c r="M75" s="19" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="N75" s="20" t="s">
         <v>87</v>

--- a/GATEWAY/A1#111CIDSOFTWARE/CiD_Software_SpA/ADT/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111CIDSOFTWARE/CiD_Software_SpA/ADT/3.0/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CiD\SIO\CidCda2Generator\doc\LDO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silvio\Desktop\Nuovi Adt Da Accreditare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E51FBE8-EE97-42F4-A594-C6682D90C4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C08B11-C3AC-4376-BE93-8AA0FC4A4D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1884,40 +1884,40 @@
     <t>abbiamo riempito tutti i campi opzionali a nostra disposizione.</t>
   </si>
   <si>
-    <t>2023-03-21T10:53:14Z</t>
-  </si>
-  <si>
-    <t>2023-03-21T10:53:16Z</t>
-  </si>
-  <si>
-    <t>2023-03-21T10:53:19Z</t>
-  </si>
-  <si>
-    <t>2023-03-21T10:53:21Z</t>
-  </si>
-  <si>
-    <t>0b605c9686000448</t>
-  </si>
-  <si>
-    <t>d31f4b9eccf55a26</t>
-  </si>
-  <si>
-    <t>4fc83fa316a232cd</t>
-  </si>
-  <si>
-    <t>913c5b465fe95eb3</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.99.4.4.fa69ecf06f26a38405490e216e1555b94fecab4e05654e74ab647b17c95ba0ce.2b18cff1ff^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.99.4.4.fa69ecf06f26a38405490e216e1555b94fecab4e05654e74ab647b17c95ba0ce.452807db7f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.99.4.4.fa69ecf06f26a38405490e216e1555b94fecab4e05654e74ab647b17c95ba0ce.5f4de3c17f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.99.4.4.3b216396278c322a8332e0b8128cdbabe1764c2400727edbdbbe9331e0f90a67.088ca5f3cb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2023-03-28T11:10:10Z</t>
+  </si>
+  <si>
+    <t>2023-03-28T11:10:13Z</t>
+  </si>
+  <si>
+    <t>2023-03-28T11:10:15Z</t>
+  </si>
+  <si>
+    <t>2023-03-28T11:10:18Z</t>
+  </si>
+  <si>
+    <t>cb51b36672ec1b7d</t>
+  </si>
+  <si>
+    <t>f9267989dec2e11a</t>
+  </si>
+  <si>
+    <t>c5f5539cf2a83d63</t>
+  </si>
+  <si>
+    <t>badf7c305d0722b5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.99.4.4.fa69ecf06f26a38405490e216e1555b94fecab4e05654e74ab647b17c95ba0ce.ea70a1997e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.99.4.4.fa69ecf06f26a38405490e216e1555b94fecab4e05654e74ab647b17c95ba0ce.ab2cf5e33b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.99.4.4.fa69ecf06f26a38405490e216e1555b94fecab4e05654e74ab647b17c95ba0ce.85867ae23c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.99.4.4.3b216396278c322a8332e0b8128cdbabe1764c2400727edbdbbe9331e0f90a67.f48b7d0e97^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3837,7 +3837,7 @@
   <dimension ref="A1:O992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="G15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="H15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
@@ -4189,7 +4189,7 @@
         <v>42</v>
       </c>
       <c r="F15" s="17">
-        <v>45006</v>
+        <v>45013</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>352</v>
@@ -4226,7 +4226,7 @@
         <v>44</v>
       </c>
       <c r="F16" s="17">
-        <v>45006</v>
+        <v>45013</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>353</v>
@@ -4263,7 +4263,7 @@
         <v>46</v>
       </c>
       <c r="F17" s="17">
-        <v>45006</v>
+        <v>45013</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>354</v>
@@ -4300,7 +4300,7 @@
         <v>48</v>
       </c>
       <c r="F18" s="17">
-        <v>45006</v>
+        <v>45013</v>
       </c>
       <c r="G18" s="18" t="s">
         <v>355</v>

--- a/GATEWAY/A1#111CIDSOFTWARE/CiD_Software_SpA/ADT/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111CIDSOFTWARE/CiD_Software_SpA/ADT/3.0/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silvio\Desktop\Nuovi Adt Da Accreditare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C08B11-C3AC-4376-BE93-8AA0FC4A4D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CA8B80-CE44-49D8-92A7-F57C5650E2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="363">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -1884,40 +1884,37 @@
     <t>abbiamo riempito tutti i campi opzionali a nostra disposizione.</t>
   </si>
   <si>
-    <t>2023-03-28T11:10:10Z</t>
-  </si>
-  <si>
-    <t>2023-03-28T11:10:13Z</t>
-  </si>
-  <si>
-    <t>2023-03-28T11:10:15Z</t>
-  </si>
-  <si>
-    <t>2023-03-28T11:10:18Z</t>
-  </si>
-  <si>
-    <t>cb51b36672ec1b7d</t>
-  </si>
-  <si>
-    <t>f9267989dec2e11a</t>
-  </si>
-  <si>
-    <t>c5f5539cf2a83d63</t>
-  </si>
-  <si>
-    <t>badf7c305d0722b5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.99.4.4.fa69ecf06f26a38405490e216e1555b94fecab4e05654e74ab647b17c95ba0ce.ea70a1997e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.99.4.4.fa69ecf06f26a38405490e216e1555b94fecab4e05654e74ab647b17c95ba0ce.ab2cf5e33b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.99.4.4.fa69ecf06f26a38405490e216e1555b94fecab4e05654e74ab647b17c95ba0ce.85867ae23c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.99.4.4.3b216396278c322a8332e0b8128cdbabe1764c2400727edbdbbe9331e0f90a67.f48b7d0e97^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2023-04-12T13:09:28Z</t>
+  </si>
+  <si>
+    <t>2023-04-12T13:09:29Z</t>
+  </si>
+  <si>
+    <t>2023-04-12T13:09:30Z</t>
+  </si>
+  <si>
+    <t>2be6923686054c53</t>
+  </si>
+  <si>
+    <t>0a19e6e195834abb</t>
+  </si>
+  <si>
+    <t>705e2a403e703856</t>
+  </si>
+  <si>
+    <t>bf07580a7b51cff3</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.99.4.4.fa69ecf06f26a38405490e216e1555b94fecab4e05654e74ab647b17c95ba0ce.607b198e1e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.99.4.4.fa69ecf06f26a38405490e216e1555b94fecab4e05654e74ab647b17c95ba0ce.f356624a7d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.99.4.4.fa69ecf06f26a38405490e216e1555b94fecab4e05654e74ab647b17c95ba0ce.fbddff9a56^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.99.4.4.3b216396278c322a8332e0b8128cdbabe1764c2400727edbdbbe9331e0f90a67.c0da869445^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3837,7 +3834,7 @@
   <dimension ref="A1:O992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="H15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
@@ -4189,16 +4186,16 @@
         <v>42</v>
       </c>
       <c r="F15" s="17">
-        <v>45013</v>
+        <v>45028</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>352</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J15" s="19"/>
       <c r="K15" s="19" t="s">
@@ -4226,16 +4223,16 @@
         <v>44</v>
       </c>
       <c r="F16" s="17">
-        <v>45013</v>
+        <v>45028</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>353</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J16" s="19"/>
       <c r="K16" s="19" t="s">
@@ -4263,16 +4260,16 @@
         <v>46</v>
       </c>
       <c r="F17" s="17">
-        <v>45013</v>
+        <v>45028</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J17" s="19"/>
       <c r="K17" s="19" t="s">
@@ -4300,16 +4297,16 @@
         <v>48</v>
       </c>
       <c r="F18" s="17">
-        <v>45013</v>
+        <v>45028</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J18" s="19"/>
       <c r="K18" s="19" t="s">

--- a/GATEWAY/A1#111CIDSOFTWARE/CiD_Software_SpA/ADT/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111CIDSOFTWARE/CiD_Software_SpA/ADT/3.0/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silvio\Desktop\Nuovi Adt Da Accreditare\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silvio\Desktop\ACCREDITAMENTO LDO 18.04.2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CA8B80-CE44-49D8-92A7-F57C5650E2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E6273B-7DCC-4BC1-B840-D0A528A822F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="362">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -1884,37 +1884,34 @@
     <t>abbiamo riempito tutti i campi opzionali a nostra disposizione.</t>
   </si>
   <si>
-    <t>2023-04-12T13:09:28Z</t>
-  </si>
-  <si>
-    <t>2023-04-12T13:09:29Z</t>
-  </si>
-  <si>
-    <t>2023-04-12T13:09:30Z</t>
-  </si>
-  <si>
-    <t>2be6923686054c53</t>
-  </si>
-  <si>
-    <t>0a19e6e195834abb</t>
-  </si>
-  <si>
-    <t>705e2a403e703856</t>
-  </si>
-  <si>
-    <t>bf07580a7b51cff3</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.99.4.4.fa69ecf06f26a38405490e216e1555b94fecab4e05654e74ab647b17c95ba0ce.607b198e1e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.99.4.4.fa69ecf06f26a38405490e216e1555b94fecab4e05654e74ab647b17c95ba0ce.f356624a7d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.99.4.4.fa69ecf06f26a38405490e216e1555b94fecab4e05654e74ab647b17c95ba0ce.fbddff9a56^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.99.4.4.3b216396278c322a8332e0b8128cdbabe1764c2400727edbdbbe9331e0f90a67.c0da869445^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2023-04-18T16:16:23Z</t>
+  </si>
+  <si>
+    <t>2023-04-18T16:16:24Z</t>
+  </si>
+  <si>
+    <t>e8a8769bb2955e82</t>
+  </si>
+  <si>
+    <t>670f7ef97844e16f</t>
+  </si>
+  <si>
+    <t>4dccaf0453530bfb</t>
+  </si>
+  <si>
+    <t>a5aaf5dbfd9b918a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.99.4.4.fa69ecf06f26a38405490e216e1555b94fecab4e05654e74ab647b17c95ba0ce.3c08eb4212^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.99.4.4.fa69ecf06f26a38405490e216e1555b94fecab4e05654e74ab647b17c95ba0ce.d74029467e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.99.4.4.fa69ecf06f26a38405490e216e1555b94fecab4e05654e74ab647b17c95ba0ce.81a56dd84f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.99.4.4.3b216396278c322a8332e0b8128cdbabe1764c2400727edbdbbe9331e0f90a67.af932c8aa7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -4186,16 +4183,16 @@
         <v>42</v>
       </c>
       <c r="F15" s="17">
-        <v>45028</v>
+        <v>45034</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>352</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J15" s="19"/>
       <c r="K15" s="19" t="s">
@@ -4223,16 +4220,16 @@
         <v>44</v>
       </c>
       <c r="F16" s="17">
-        <v>45028</v>
+        <v>45034</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J16" s="19"/>
       <c r="K16" s="19" t="s">
@@ -4260,16 +4257,16 @@
         <v>46</v>
       </c>
       <c r="F17" s="17">
-        <v>45028</v>
+        <v>45034</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>353</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J17" s="19"/>
       <c r="K17" s="19" t="s">
@@ -4297,16 +4294,16 @@
         <v>48</v>
       </c>
       <c r="F18" s="17">
-        <v>45028</v>
+        <v>45034</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J18" s="19"/>
       <c r="K18" s="19" t="s">

--- a/GATEWAY/A1#111CIDSOFTWARE/CiD_Software_SpA/ADT/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111CIDSOFTWARE/CiD_Software_SpA/ADT/3.0/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silvio\Desktop\ACCREDITAMENTO LDO 18.04.2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CiD\SIO\CidCda2Generator\doc\LDO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E6273B-7DCC-4BC1-B840-D0A528A822F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E84BEEF-2F18-484A-8D9F-ADC68D49BD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1842,15 +1842,6 @@
     <t>Informazioni non disponibili nel software</t>
   </si>
   <si>
-    <t>Viene mostrato all'operatore un errore di timeout e viene chiesto di riprovare.</t>
-  </si>
-  <si>
-    <t>Viene richiesto all'operatore di compilare i dati richiesti</t>
-  </si>
-  <si>
-    <t>Viene richiesto all'operatore di compilare i dati richiesti per l'anagrafica dell'assitito</t>
-  </si>
-  <si>
     <t>Al campo non è possibile assegnare un valore differente da quelli previsti</t>
   </si>
   <si>
@@ -1912,6 +1903,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.99.4.4.3b216396278c322a8332e0b8128cdbabe1764c2400727edbdbbe9331e0f90a67.af932c8aa7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Viene mostrato all'operatore un errore di timeout e viene chiesto di riprovare: l'operazione di retry viene eseguita manualmente dall’operatore in back office</t>
+  </si>
+  <si>
+    <t>Viene richiesto all'operatore di compilare i dati richiesti: le operazioni di correzione anagrafica e reinvio ad fse  sono eseguite dall'operatore (Medico)</t>
+  </si>
+  <si>
+    <t>Viene richiesto all'operatore di compilare i dati richiesti per l'anagrafica dell'assitito: le operazioni di correzione anagrafica e reinvio ad fse  sono eseguite dall'operatore (Medico)</t>
   </si>
 </sst>
 </file>
@@ -3831,10 +3831,10 @@
   <dimension ref="A1:O992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="J15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomRight" activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4186,13 +4186,13 @@
         <v>45034</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J15" s="19"/>
       <c r="K15" s="19" t="s">
@@ -4223,13 +4223,13 @@
         <v>45034</v>
       </c>
       <c r="G16" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="H16" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="H16" s="18" t="s">
-        <v>355</v>
-      </c>
       <c r="I16" s="18" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="J16" s="19"/>
       <c r="K16" s="19" t="s">
@@ -4260,13 +4260,13 @@
         <v>45034</v>
       </c>
       <c r="G17" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="H17" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="H17" s="18" t="s">
-        <v>356</v>
-      </c>
       <c r="I17" s="18" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="J17" s="19"/>
       <c r="K17" s="19" t="s">
@@ -4297,13 +4297,13 @@
         <v>45034</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="J18" s="19"/>
       <c r="K18" s="19" t="s">
@@ -4313,7 +4313,7 @@
       <c r="M18" s="19"/>
       <c r="N18" s="20"/>
       <c r="O18" s="21" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="154.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -4797,16 +4797,16 @@
         <v>44978</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="J36" s="19" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K36" s="19" t="s">
         <v>87</v>
@@ -4817,7 +4817,7 @@
         <v>87</v>
       </c>
       <c r="O36" s="21" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -4985,16 +4985,16 @@
         <v>44978</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="J42" s="19" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K42" s="19" t="s">
         <v>87</v>
@@ -5005,7 +5005,7 @@
         <v>87</v>
       </c>
       <c r="O42" s="21" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5174,7 +5174,7 @@
       <c r="H48" s="18"/>
       <c r="I48" s="18"/>
       <c r="J48" s="19" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="K48" s="19" t="s">
         <v>87</v>
@@ -5713,7 +5713,7 @@
       </c>
       <c r="L66" s="19"/>
       <c r="M66" s="19" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N66" s="20" t="s">
         <v>87</v>
@@ -5749,7 +5749,7 @@
         <v>330</v>
       </c>
       <c r="J67" s="19" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="K67" s="19" t="s">
         <v>87</v>
@@ -5790,7 +5790,7 @@
         <v>331</v>
       </c>
       <c r="J68" s="19" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="K68" s="19" t="s">
         <v>87</v>
@@ -5828,7 +5828,7 @@
       </c>
       <c r="L69" s="19"/>
       <c r="M69" s="19" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N69" s="20" t="s">
         <v>87</v>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="L70" s="19"/>
       <c r="M70" s="19" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N70" s="20" t="s">
         <v>87</v>
